--- a/spline/100092.xlsx
+++ b/spline/100092.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ОСТ 1 00092-73" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3146,7 +3146,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/spline/100092.xlsx
+++ b/spline/100092.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <r>
       <t>Модуль </t>
@@ -479,9 +479,6 @@
   <si>
     <t>83°00'00''</t>
   </si>
-  <si>
-    <t> 10,5</t>
-  </si>
 </sst>
 </file>
 
@@ -751,45 +748,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -845,6 +803,45 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1190,42 +1187,42 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q51"/>
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1237,26 +1234,26 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1266,67 +1263,67 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="2">
         <v>-0.06</v>
       </c>
       <c r="N3" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="31">
         <v>-0.05</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="3">
         <v>-0.12</v>
       </c>
       <c r="N4" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="30">
         <v>0.3</v>
       </c>
       <c r="B5" s="3">
@@ -1341,7 +1338,7 @@
       <c r="E5" s="3">
         <v>6.3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="30">
         <v>-0.03</v>
       </c>
       <c r="G5" s="3">
@@ -1356,16 +1353,16 @@
       <c r="J5" s="3">
         <v>6.5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="30">
         <v>0.1</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="30">
         <v>0.1</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="30">
         <v>0.47</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="30">
         <v>0.47</v>
       </c>
       <c r="O5" s="3">
@@ -1379,7 +1376,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3">
         <v>25</v>
       </c>
@@ -1392,11 +1389,11 @@
       <c r="E6" s="3">
         <v>7.8</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="3">
         <v>7.2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="30">
         <v>0.03</v>
       </c>
       <c r="I6" s="3">
@@ -1405,10 +1402,10 @@
       <c r="J6" s="3">
         <v>8</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="3">
         <v>3.97</v>
       </c>
@@ -1420,7 +1417,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="3">
         <v>30</v>
       </c>
@@ -1433,21 +1430,21 @@
       <c r="E7" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="3">
         <v>8.5</v>
       </c>
       <c r="J7" s="3">
         <v>9.5</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="3">
         <v>4.8499999999999996</v>
       </c>
@@ -1459,7 +1456,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3">
         <v>35</v>
       </c>
@@ -1472,13 +1469,13 @@
       <c r="E8" s="3">
         <v>10.8</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="30">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G8" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I8" s="3">
@@ -1487,10 +1484,10 @@
       <c r="J8" s="3">
         <v>11</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="3">
         <v>5.74</v>
       </c>
@@ -1502,7 +1499,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3">
         <v>40</v>
       </c>
@@ -1515,21 +1512,21 @@
       <c r="E9" s="3">
         <v>12.3</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="3">
         <v>11.7</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="3">
         <v>11.5</v>
       </c>
       <c r="J9" s="3">
         <v>12.5</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="3">
         <v>6.62</v>
       </c>
@@ -1541,7 +1538,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3">
         <v>45</v>
       </c>
@@ -1554,21 +1551,21 @@
       <c r="E10" s="3">
         <v>13.8</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="3">
         <v>13.2</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="3">
         <v>13</v>
       </c>
       <c r="J10" s="3">
         <v>14</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="3">
         <v>7.5</v>
       </c>
@@ -1580,7 +1577,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="3">
         <v>50</v>
       </c>
@@ -1593,21 +1590,21 @@
       <c r="E11" s="3">
         <v>15.3</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="3">
         <v>14.7</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="3">
         <v>14.5</v>
       </c>
       <c r="J11" s="3">
         <v>15.5</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="3">
         <v>8.3800000000000008</v>
       </c>
@@ -1619,7 +1616,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="30">
         <v>0.4</v>
       </c>
       <c r="B12" s="3">
@@ -1640,7 +1637,7 @@
       <c r="G12" s="3">
         <v>7.6</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="30">
         <v>0.03</v>
       </c>
       <c r="I12" s="3">
@@ -1649,16 +1646,16 @@
       <c r="J12" s="3">
         <v>8.6</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="30">
         <v>0.1</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="30">
         <v>0.1</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="30">
         <v>0.63</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="30">
         <v>0.63</v>
       </c>
       <c r="O12" s="3">
@@ -1672,7 +1669,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3">
         <v>25</v>
       </c>
@@ -1685,23 +1682,23 @@
       <c r="E13" s="3">
         <v>10.4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="30">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G13" s="3">
         <v>9.6</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="3">
         <v>9.4</v>
       </c>
       <c r="J13" s="3">
         <v>10.6</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="3">
         <v>5.32</v>
       </c>
@@ -1713,7 +1710,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3">
         <v>30</v>
       </c>
@@ -1726,11 +1723,11 @@
       <c r="E14" s="3">
         <v>12.4</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="3">
         <v>11.6</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I14" s="3">
@@ -1739,10 +1736,10 @@
       <c r="J14" s="3">
         <v>12.6</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="3">
         <v>6.49</v>
       </c>
@@ -1754,7 +1751,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="3">
         <v>35</v>
       </c>
@@ -1767,21 +1764,21 @@
       <c r="E15" s="3">
         <v>14.4</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="3">
         <v>13.6</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="3">
         <v>13.4</v>
       </c>
       <c r="J15" s="3">
         <v>14.6</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="3">
         <v>7.67</v>
       </c>
@@ -1793,7 +1790,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3">
         <v>40</v>
       </c>
@@ -1806,21 +1803,21 @@
       <c r="E16" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="3">
         <v>15.6</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="3">
         <v>15.4</v>
       </c>
       <c r="J16" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="3">
         <v>8.85</v>
       </c>
@@ -1832,7 +1829,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3">
         <v>45</v>
       </c>
@@ -1845,23 +1842,23 @@
       <c r="E17" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="30">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="G17" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="3">
         <v>17.399999999999999</v>
       </c>
       <c r="J17" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="3">
         <v>10.02</v>
       </c>
@@ -1873,7 +1870,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3">
         <v>50</v>
       </c>
@@ -1886,11 +1883,11 @@
       <c r="E18" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I18" s="3">
@@ -1899,10 +1896,10 @@
       <c r="J18" s="3">
         <v>20.6</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="3">
         <v>11.2</v>
       </c>
@@ -1914,7 +1911,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="3">
         <v>55</v>
       </c>
@@ -1927,21 +1924,21 @@
       <c r="E19" s="3">
         <v>22.4</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="3">
         <v>21.6</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="3">
         <v>21.4</v>
       </c>
       <c r="J19" s="3">
         <v>22.6</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="3">
         <v>12.37</v>
       </c>
@@ -1953,7 +1950,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="A20" s="30">
         <v>0.5</v>
       </c>
       <c r="B20" s="3">
@@ -1968,7 +1965,7 @@
       <c r="E20" s="3">
         <v>10.5</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="30">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G20" s="3">
@@ -1983,16 +1980,16 @@
       <c r="J20" s="3">
         <v>10.8</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="30">
         <v>0.2</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="30">
         <v>0.2</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="30">
         <v>0.78</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="30">
         <v>0.78</v>
       </c>
       <c r="O20" s="3">
@@ -2006,7 +2003,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3">
         <v>25</v>
       </c>
@@ -2019,11 +2016,11 @@
       <c r="E21" s="3">
         <v>13</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="3">
         <v>12</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I21" s="3">
@@ -2032,10 +2029,10 @@
       <c r="J21" s="3">
         <v>13.3</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="3">
         <v>6.65</v>
       </c>
@@ -2047,7 +2044,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3">
         <v>30</v>
       </c>
@@ -2060,21 +2057,21 @@
       <c r="E22" s="3">
         <v>15.5</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="3">
         <v>14.5</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="3">
         <v>14.2</v>
       </c>
       <c r="J22" s="3">
         <v>15.8</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="3">
         <v>8.1199999999999992</v>
       </c>
@@ -2086,7 +2083,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="3">
         <v>35</v>
       </c>
@@ -2099,21 +2096,21 @@
       <c r="E23" s="3">
         <v>18</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="3">
         <v>17</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="3">
         <v>16.7</v>
       </c>
       <c r="J23" s="3">
         <v>18.3</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="3">
         <v>9.59</v>
       </c>
@@ -2125,7 +2122,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="3">
         <v>40</v>
       </c>
@@ -2138,13 +2135,13 @@
       <c r="E24" s="3">
         <v>20.5</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="30">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="G24" s="3">
         <v>19.5</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I24" s="3">
@@ -2153,10 +2150,10 @@
       <c r="J24" s="3">
         <v>20.8</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="3">
         <v>11.06</v>
       </c>
@@ -2168,7 +2165,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="3">
         <v>45</v>
       </c>
@@ -2181,21 +2178,21 @@
       <c r="E25" s="3">
         <v>23</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="3">
         <v>22</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="3">
         <v>21.7</v>
       </c>
       <c r="J25" s="3">
         <v>23.3</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="3">
         <v>12.53</v>
       </c>
@@ -2207,7 +2204,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="3">
         <v>50</v>
       </c>
@@ -2220,21 +2217,21 @@
       <c r="E26" s="3">
         <v>25.5</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="3">
         <v>24.5</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="3">
         <v>24.2</v>
       </c>
       <c r="J26" s="3">
         <v>28.8</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="3">
         <v>14</v>
       </c>
@@ -2246,7 +2243,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="3">
         <v>55</v>
       </c>
@@ -2259,21 +2256,21 @@
       <c r="E27" s="3">
         <v>28</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="3">
         <v>27</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="3">
         <v>26.7</v>
       </c>
       <c r="J27" s="3">
         <v>28.3</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="3">
         <v>15.47</v>
       </c>
@@ -2285,7 +2282,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="3">
         <v>60</v>
       </c>
@@ -2304,17 +2301,17 @@
       <c r="G28" s="3">
         <v>29.5</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="3">
         <v>29.2</v>
       </c>
       <c r="J28" s="3">
         <v>30.8</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
       <c r="O28" s="3">
         <v>16.940000000000001</v>
       </c>
@@ -2326,7 +2323,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="30">
         <v>0.6</v>
       </c>
       <c r="B29" s="3">
@@ -2341,13 +2338,13 @@
       <c r="E29" s="3">
         <v>12.6</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="30">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G29" s="3">
         <v>11.4</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="30">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I29" s="3">
@@ -2356,16 +2353,16 @@
       <c r="J29" s="3">
         <v>12.9</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="30">
         <v>0.25</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="30">
         <v>0.25</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="30">
         <v>0.94</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="30">
         <v>0.94</v>
       </c>
       <c r="O29" s="3">
@@ -2379,7 +2376,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="3">
         <v>25</v>
       </c>
@@ -2392,21 +2389,21 @@
       <c r="E30" s="3">
         <v>15.6</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="3">
         <v>14.4</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="3">
         <v>14.1</v>
       </c>
       <c r="J30" s="3">
         <v>15.9</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="3">
         <v>8</v>
       </c>
@@ -2418,7 +2415,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="3">
         <v>30</v>
       </c>
@@ -2431,23 +2428,23 @@
       <c r="E31" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="30">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="G31" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="3">
         <v>17.100000000000001</v>
       </c>
       <c r="J31" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="3">
         <v>9.75</v>
       </c>
@@ -2459,7 +2456,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="3">
         <v>35</v>
       </c>
@@ -2472,11 +2469,11 @@
       <c r="E32" s="3">
         <v>21.6</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I32" s="3">
@@ -2485,10 +2482,10 @@
       <c r="J32" s="3">
         <v>21.9</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
       <c r="O32" s="3">
         <v>11.53</v>
       </c>
@@ -2500,7 +2497,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="3">
         <v>40</v>
       </c>
@@ -2513,21 +2510,21 @@
       <c r="E33" s="3">
         <v>24.6</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="3">
         <v>23.4</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="3">
         <v>23.1</v>
       </c>
       <c r="J33" s="3">
         <v>24.9</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="3">
         <v>13.29</v>
       </c>
@@ -2539,7 +2536,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="3">
         <v>45</v>
       </c>
@@ -2552,21 +2549,21 @@
       <c r="E34" s="3">
         <v>27.6</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="3">
         <v>26.4</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="3">
         <v>26.1</v>
       </c>
       <c r="J34" s="3">
         <v>27.9</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="3">
         <v>15.05</v>
       </c>
@@ -2578,7 +2575,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="3">
         <v>50</v>
       </c>
@@ -2591,23 +2588,23 @@
       <c r="E35" s="3">
         <v>30.6</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="30">
         <v>-0.05</v>
       </c>
       <c r="G35" s="3">
         <v>29.4</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="3">
         <v>29.1</v>
       </c>
       <c r="J35" s="3">
         <v>30.9</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="3">
         <v>15.82</v>
       </c>
@@ -2619,7 +2616,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="3">
         <v>55</v>
       </c>
@@ -2632,11 +2629,11 @@
       <c r="E36" s="3">
         <v>33.6</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="3">
         <v>32.4</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="30">
         <v>0.05</v>
       </c>
       <c r="I36" s="3">
@@ -2645,10 +2642,10 @@
       <c r="J36" s="3">
         <v>33.9</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
       <c r="O36" s="3">
         <v>18.579999999999998</v>
       </c>
@@ -2660,7 +2657,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="3">
         <v>60</v>
       </c>
@@ -2673,21 +2670,21 @@
       <c r="E37" s="3">
         <v>36.6</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="3">
         <v>35.4</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="3">
         <v>35.1</v>
       </c>
       <c r="J37" s="3">
         <v>36.9</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="3">
         <v>20.350000000000001</v>
       </c>
@@ -2699,7 +2696,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="3">
         <v>65</v>
       </c>
@@ -2712,21 +2709,21 @@
       <c r="E38" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="3">
         <v>38.4</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="3">
         <v>38.1</v>
       </c>
       <c r="J38" s="3">
         <v>39.9</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="3">
         <v>22.11</v>
       </c>
@@ -2738,7 +2735,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="3">
         <v>70</v>
       </c>
@@ -2751,21 +2748,21 @@
       <c r="E39" s="3">
         <v>42.6</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="3">
         <v>41.4</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="3">
         <v>41.1</v>
       </c>
       <c r="J39" s="3">
         <v>42.9</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
       <c r="O39" s="3">
         <v>23.87</v>
       </c>
@@ -2777,7 +2774,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14">
+      <c r="A40" s="30">
         <v>0.8</v>
       </c>
       <c r="B40" s="3">
@@ -2792,13 +2789,13 @@
       <c r="E40" s="3">
         <v>13</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="30">
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="G40" s="3">
         <v>11</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I40" s="3">
@@ -2807,16 +2804,16 @@
       <c r="J40" s="3">
         <v>13.3</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="30">
         <v>0.3</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="30">
         <v>0.3</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="30">
         <v>1.26</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="30">
         <v>1.26</v>
       </c>
       <c r="O40" s="3">
@@ -2830,7 +2827,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="3">
         <v>20</v>
       </c>
@@ -2843,21 +2840,21 @@
       <c r="E41" s="3">
         <v>17</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="3">
         <v>15</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="3">
         <v>14.7</v>
       </c>
       <c r="J41" s="3">
         <v>17.3</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
       <c r="O41" s="3">
         <v>8.33</v>
       </c>
@@ -2869,7 +2866,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="3">
         <v>25</v>
       </c>
@@ -2882,13 +2879,13 @@
       <c r="E42" s="3">
         <v>21</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="30">
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="G42" s="3">
         <v>19</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I42" s="3">
@@ -2897,10 +2894,10 @@
       <c r="J42" s="3">
         <v>21.3</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="3">
         <v>10.89</v>
       </c>
@@ -2912,7 +2909,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="3">
         <v>30</v>
       </c>
@@ -2925,21 +2922,21 @@
       <c r="E43" s="3">
         <v>25</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="3">
         <v>23</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="3">
         <v>22.7</v>
       </c>
       <c r="J43" s="3">
         <v>25.3</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="3">
         <v>13.04</v>
       </c>
@@ -2951,7 +2948,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="3">
         <v>35</v>
       </c>
@@ -2964,21 +2961,21 @@
       <c r="E44" s="3">
         <v>29</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="3">
         <v>27</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="3">
         <v>26.7</v>
       </c>
       <c r="J44" s="3">
         <v>29.3</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="3">
         <v>15.39</v>
       </c>
@@ -2990,7 +2987,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="3">
         <v>40</v>
       </c>
@@ -3003,13 +3000,13 @@
       <c r="E45" s="3">
         <v>33</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="30">
         <v>-0.05</v>
       </c>
       <c r="G45" s="3">
         <v>31</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="30">
         <v>0.05</v>
       </c>
       <c r="I45" s="3">
@@ -3018,10 +3015,10 @@
       <c r="J45" s="3">
         <v>33.299999999999997</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="3">
         <v>17.739999999999998</v>
       </c>
@@ -3033,7 +3030,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="3">
         <v>45</v>
       </c>
@@ -3046,21 +3043,21 @@
       <c r="E46" s="3">
         <v>37</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="3">
         <v>35</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="3">
         <v>34.700000000000003</v>
       </c>
       <c r="J46" s="3">
         <v>37.299999999999997</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="3">
         <v>20.09</v>
       </c>
@@ -3072,7 +3069,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="3">
         <v>50</v>
       </c>
@@ -3085,21 +3082,21 @@
       <c r="E47" s="3">
         <v>41</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="3">
         <v>39</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="3">
         <v>38.700000000000003</v>
       </c>
       <c r="J47" s="3">
         <v>41.3</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="3">
         <v>22.45</v>
       </c>
@@ -3111,7 +3108,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="3">
         <v>55</v>
       </c>
@@ -3124,21 +3121,21 @@
       <c r="E48" s="3">
         <v>45</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="3">
         <v>43</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="3">
         <v>42.7</v>
       </c>
       <c r="J48" s="3">
         <v>45.3</v>
       </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="3">
         <v>24.8</v>
       </c>
@@ -3150,7 +3147,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="3">
         <v>60</v>
       </c>
@@ -3163,21 +3160,21 @@
       <c r="E49" s="3">
         <v>49</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="3">
         <v>47</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="3">
         <v>46.7</v>
       </c>
       <c r="J49" s="3">
         <v>49.3</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="3">
         <v>27.15</v>
       </c>
@@ -3189,7 +3186,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="3">
         <v>65</v>
       </c>
@@ -3202,13 +3199,13 @@
       <c r="E50" s="3">
         <v>53</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="30">
         <v>-0.06</v>
       </c>
       <c r="G50" s="3">
         <v>51</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="30">
         <v>0.06</v>
       </c>
       <c r="I50" s="3">
@@ -3217,10 +3214,10 @@
       <c r="J50" s="3">
         <v>53.3</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="3">
         <v>29.5</v>
       </c>
@@ -3232,7 +3229,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="3">
         <v>70</v>
       </c>
@@ -3245,21 +3242,21 @@
       <c r="E51" s="3">
         <v>57</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="3">
         <v>55</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="3">
         <v>54.7</v>
       </c>
       <c r="J51" s="3">
         <v>57.3</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="3">
         <v>31.85</v>
       </c>
@@ -3272,33 +3269,32 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="M40:M51"/>
-    <mergeCell ref="N40:N51"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="N29:N39"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="M29:M39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K51"/>
-    <mergeCell ref="L40:L51"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="M20:M28"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="K29:K39"/>
-    <mergeCell ref="L29:L39"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="M5:M11"/>
     <mergeCell ref="N20:N28"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="F24:F27"/>
@@ -3315,32 +3311,33 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="F20:F23"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="M20:M28"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="K29:K39"/>
+    <mergeCell ref="L29:L39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K51"/>
+    <mergeCell ref="L40:L51"/>
+    <mergeCell ref="N29:N39"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="M29:M39"/>
+    <mergeCell ref="M40:M51"/>
+    <mergeCell ref="N40:N51"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3353,7 +3350,7 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,20 +3359,20 @@
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="7.109375" bestFit="1" customWidth="1"/>
@@ -3394,16 +3391,16 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="29" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -3412,19 +3409,19 @@
       <c r="J1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -3433,7 +3430,7 @@
       <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="14" t="s">
         <v>47</v>
       </c>
       <c r="S1" s="7" t="s">
@@ -3442,7 +3439,7 @@
       <c r="T1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="7" t="s">
@@ -3458,3622 +3455,3622 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>0.3</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="10">
         <v>20</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="10">
         <v>6</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="21">
         <v>6.3</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="24">
         <v>-0.03</v>
       </c>
-      <c r="G2" s="22">
-        <v>0</v>
-      </c>
-      <c r="H2" s="34">
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
         <v>5.7</v>
       </c>
-      <c r="I2" s="22">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23">
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="21">
         <v>5.5</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="21">
         <v>6.5</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="17">
         <v>0.1</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="17">
         <v>0.1</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="17">
         <v>0.47</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="17">
         <v>0.47</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="15">
         <v>3.09</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W2" s="22">
-        <v>0</v>
-      </c>
-      <c r="X2" s="23">
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10">
         <v>6.9050000000000002</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="10">
         <v>5.3339999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+    <row r="3" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>0.3</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="10">
         <v>25</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="10">
         <v>7.5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="21">
         <v>7.8</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="24">
         <v>-0.03</v>
       </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
         <v>7.2</v>
       </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>0.03</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="21">
         <v>7</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="21">
         <v>8</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="17">
         <v>0.1</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="17">
         <v>0.1</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="17">
         <v>0.5</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="17">
         <v>0.5</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="15">
         <v>3.97</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W3" s="22">
-        <v>0</v>
-      </c>
-      <c r="X3" s="23">
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
         <v>8.3420000000000005</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="10">
         <v>6.8369999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>0.3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="10">
         <v>30</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="10">
         <v>9</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="25">
         <v>-0.03</v>
       </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>0.03</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="21">
         <v>8.5</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="21">
         <v>9.5</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="17">
         <v>0.1</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="17">
         <v>0.1</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="17">
         <v>0.5</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="17">
         <v>0.5</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="15">
         <v>4.8499999999999996</v>
       </c>
-      <c r="V4" s="22">
+      <c r="V4" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W4" s="22">
-        <v>0</v>
-      </c>
-      <c r="X4" s="23">
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
         <v>9.8040000000000003</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Y4" s="10">
         <v>8.3390000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+    <row r="5" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
         <v>0.3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="10">
         <v>35</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="21">
         <v>10.8</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="26">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="21">
         <v>10</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="21">
         <v>11</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="17">
         <v>0.1</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="17">
         <v>0.1</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="17">
         <v>0.5</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="17">
         <v>0.5</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="15">
         <v>5.74</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W5" s="22">
-        <v>0</v>
-      </c>
-      <c r="X5" s="23">
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
         <v>11.278</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="10">
         <v>9.8409999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+    <row r="6" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>0.3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="10">
         <v>40</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="10">
         <v>12</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="21">
         <v>12.3</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="24">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="22">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
         <v>11.7</v>
       </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="21">
         <v>11.5</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="21">
         <v>12.5</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="17">
         <v>0.1</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="17">
         <v>0.1</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="17">
         <v>0.5</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="17">
         <v>0.5</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="15">
         <v>6.62</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W6" s="22">
-        <v>0</v>
-      </c>
-      <c r="X6" s="23">
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
         <v>12.759</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="10">
         <v>11.342000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>0.3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="10">
         <v>45</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="10">
         <v>13.5</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="21">
         <v>13.8</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="24">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G7" s="22">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
         <v>13.2</v>
       </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="21">
         <v>13</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="21">
         <v>14</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="17">
         <v>0.1</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="17">
         <v>0.1</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="17">
         <v>0.5</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="17">
         <v>0.5</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="15">
         <v>7.5</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W7" s="22">
-        <v>0</v>
-      </c>
-      <c r="X7" s="23">
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
         <v>14.246</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="10">
         <v>12.843</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+    <row r="8" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
         <v>0.3</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="10">
         <v>50</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="10">
         <v>15</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="21">
         <v>15.3</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="25">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="22">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
         <v>14.7</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="21">
         <v>14.5</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="21">
         <v>15.5</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="18">
         <v>0.1</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="18">
         <v>0.1</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="18">
         <v>0.5</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="18">
         <v>0.5</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="15">
         <v>8.3800000000000008</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W8" s="22">
-        <v>0</v>
-      </c>
-      <c r="X8" s="23">
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
         <v>15.734999999999999</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="10">
         <v>14.343999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
+    <row r="9" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>0.4</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="10">
         <v>20</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="21">
         <v>8.4</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="27">
         <v>-0.03</v>
       </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
         <v>7.6</v>
       </c>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <v>0.03</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="21">
         <v>7.4</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="21">
         <v>8.6</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="19">
         <v>0.1</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="19">
         <v>0.1</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="19">
         <v>0.63</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="19">
         <v>0.63</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="15">
         <v>4.1399999999999997</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W9" s="22">
-        <v>0</v>
-      </c>
-      <c r="X9" s="23">
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
         <v>9.2070000000000007</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9" s="10">
         <v>7.1109999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
+    <row r="10" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
         <v>0.4</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="10">
         <v>25</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="10">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="21">
         <v>10.4</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="26">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <v>9.6</v>
       </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>0.03</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="21">
         <v>9.4</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="21">
         <v>10.6</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="17">
         <v>0.1</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="17">
         <v>0.1</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="17">
         <v>0.63</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="17">
         <v>0.6</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="15">
         <v>5.32</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W10" s="22">
-        <v>0</v>
-      </c>
-      <c r="X10" s="23">
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
         <v>11.122</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10" s="10">
         <v>9.1159999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
+    <row r="11" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
         <v>0.4</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="10">
         <v>30</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="10">
         <v>12</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="21">
         <v>12.4</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="24">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
         <v>11.6</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="21">
         <v>11.4</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="21">
         <v>12.6</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="17">
         <v>0.1</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="17">
         <v>0.1</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="17">
         <v>0.63</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="17">
         <v>0.6</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="15">
         <v>6.49</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W11" s="22">
-        <v>0</v>
-      </c>
-      <c r="X11" s="23">
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
         <v>13.071</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="10">
         <v>11.119</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
+    <row r="12" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>0.4</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="10">
         <v>35</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="10">
         <v>14</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="21">
         <v>14.4</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="24">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
         <v>13.6</v>
       </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="21">
         <v>13.4</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="21">
         <v>14.6</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="17">
         <v>0.1</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="17">
         <v>0.1</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="17">
         <v>0.63</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="17">
         <v>0.6</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="15">
         <v>7.67</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W12" s="22">
-        <v>0</v>
-      </c>
-      <c r="X12" s="23">
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
         <v>15.037000000000001</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="10">
         <v>13.121</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
+    <row r="13" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
         <v>0.4</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="10">
         <v>40</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="10">
         <v>16</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="21">
         <v>16.399999999999999</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="25">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
         <v>15.6</v>
       </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="21">
         <v>15.4</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="21">
         <v>18.600000000000001</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="17">
         <v>0.1</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="17">
         <v>0.1</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="17">
         <v>0.63</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="17">
         <v>0.6</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="15">
         <v>8.85</v>
       </c>
-      <c r="V13" s="22">
+      <c r="V13" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W13" s="22">
-        <v>0</v>
-      </c>
-      <c r="X13" s="23">
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
         <v>17.013000000000002</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="10">
         <v>15.122999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
+    <row r="14" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
         <v>0.4</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="10">
         <v>45</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="10">
         <v>18</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="21">
         <v>18.399999999999999</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="26">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <v>17.600000000000001</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="21">
         <v>17.399999999999999</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="21">
         <v>18.600000000000001</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="17">
         <v>0.1</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="17">
         <v>0.1</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="17">
         <v>0.63</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="17">
         <v>0.6</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U14" s="28">
+      <c r="U14" s="15">
         <v>10.02</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W14" s="22">
-        <v>0</v>
-      </c>
-      <c r="X14" s="23">
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
         <v>18.994</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="10">
         <v>17.123999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
+    <row r="15" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
         <v>0.4</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="10">
         <v>50</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="10">
         <v>20</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="21">
         <v>20.399999999999999</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="24">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <v>19.600000000000001</v>
       </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25">
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="21">
         <v>19.399999999999999</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="21">
         <v>20.6</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="17">
         <v>0.1</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="17">
         <v>0.1</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="17">
         <v>0.63</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="17">
         <v>0.6</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="15">
         <v>11.2</v>
       </c>
-      <c r="V15" s="22">
+      <c r="V15" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W15" s="22">
-        <v>0</v>
-      </c>
-      <c r="X15" s="23">
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
         <v>20.98</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="10">
         <v>19.126000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
+    <row r="16" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
         <v>0.4</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="10">
         <v>55</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="10">
         <v>22</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="21">
         <v>22.4</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="25">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
         <v>21.6</v>
       </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="21">
         <v>21.4</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="21">
         <v>22.6</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="18">
         <v>0.1</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="18">
         <v>0.1</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="18">
         <v>0.63</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="18">
         <v>0.6</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="15">
         <v>12.37</v>
       </c>
-      <c r="V16" s="22">
+      <c r="V16" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W16" s="22">
-        <v>0</v>
-      </c>
-      <c r="X16" s="23">
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
         <v>22.968</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="10">
         <v>21.126999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
+    <row r="17" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <v>0.5</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="10">
         <v>20</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="10">
         <v>10</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="21">
         <v>10.5</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="26">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
         <v>9.5</v>
       </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>0.03</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="21">
         <v>10.8</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="19">
         <v>0.2</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="19">
         <v>0.2</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="19">
         <v>0.78</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="19">
         <v>0.78</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="15">
         <v>5.18</v>
       </c>
-      <c r="V17" s="22">
+      <c r="V17" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W17" s="22">
-        <v>0</v>
-      </c>
-      <c r="X17" s="23">
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
         <v>11.509</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="10">
         <v>8.8889999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22">
+    <row r="18" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <v>0.5</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="10">
         <v>12.5</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="21">
         <v>13</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="24">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
         <v>12</v>
       </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="21">
         <v>11.7</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="21">
         <v>13.3</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="17">
         <v>0.2</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="17">
         <v>0.2</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="17">
         <v>0.78</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="17">
         <v>0.8</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U18" s="28">
+      <c r="U18" s="15">
         <v>6.65</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W18" s="22">
-        <v>0</v>
-      </c>
-      <c r="X18" s="23">
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10">
         <v>13.903</v>
       </c>
-      <c r="Y18" s="23">
+      <c r="Y18" s="10">
         <v>11.395</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22">
+    <row r="19" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>0.5</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="10">
         <v>30</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="10">
         <v>15</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="21">
         <v>15.5</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="24">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="22">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <v>14.5</v>
       </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="21">
         <v>14.2</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="21">
         <v>15.8</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="17">
         <v>0.2</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="17">
         <v>0.2</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="17">
         <v>0.78</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="17">
         <v>0.8</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U19" s="15">
         <v>8.1199999999999992</v>
       </c>
-      <c r="V19" s="22">
+      <c r="V19" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W19" s="22">
-        <v>0</v>
-      </c>
-      <c r="X19" s="23">
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
         <v>16.338999999999999</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Y19" s="10">
         <v>13.898999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22">
+    <row r="20" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>0.5</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="10">
         <v>35</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="10">
         <v>17.5</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="21">
         <v>18</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="25">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
         <v>17</v>
       </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26">
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="21">
         <v>16.7</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="21">
         <v>18.3</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="17">
         <v>0.2</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="17">
         <v>0.2</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="17">
         <v>0.78</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="17">
         <v>0.8</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="15">
         <v>9.59</v>
       </c>
-      <c r="V20" s="22">
+      <c r="V20" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W20" s="22">
-        <v>0</v>
-      </c>
-      <c r="X20" s="23">
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10">
         <v>18.795999999999999</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Y20" s="10">
         <v>16.402000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
+    <row r="21" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>0.5</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="10">
         <v>40</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="21">
         <v>20.5</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="26">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
         <v>19.5</v>
       </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25">
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="21">
         <v>19.2</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="21">
         <v>20.8</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="17">
         <v>0.2</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="17">
         <v>0.2</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="17">
         <v>0.78</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="17">
         <v>0.8</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U21" s="28">
+      <c r="U21" s="15">
         <v>11.06</v>
       </c>
-      <c r="V21" s="22">
+      <c r="V21" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W21" s="22">
-        <v>0</v>
-      </c>
-      <c r="X21" s="23">
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10">
         <v>21.265999999999998</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="10">
         <v>18.904</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22">
+    <row r="22" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
         <v>0.5</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="10">
         <v>45</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="10">
         <v>22.5</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="21">
         <v>23</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="24">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G22" s="22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
         <v>22</v>
       </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="21">
         <v>21.7</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="21">
         <v>23.3</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="17">
         <v>0.2</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="17">
         <v>0.2</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="17">
         <v>0.78</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="17">
         <v>0.8</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U22" s="28">
+      <c r="U22" s="15">
         <v>12.53</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W22" s="22">
-        <v>0</v>
-      </c>
-      <c r="X22" s="23">
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="10">
         <v>23.742999999999999</v>
       </c>
-      <c r="Y22" s="23">
+      <c r="Y22" s="10">
         <v>21.405000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22">
+    <row r="23" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
         <v>0.5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="10">
         <v>50</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="10">
         <v>25</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="21">
         <v>25.5</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="24">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
         <v>24.5</v>
       </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="21">
         <v>24.2</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="21">
         <v>28.8</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="17">
         <v>0.2</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="17">
         <v>0.2</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="17">
         <v>0.78</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="17">
         <v>0.8</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="15">
         <v>14</v>
       </c>
-      <c r="V23" s="22">
+      <c r="V23" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W23" s="22">
-        <v>0</v>
-      </c>
-      <c r="X23" s="23">
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="10">
         <v>26.225000000000001</v>
       </c>
-      <c r="Y23" s="23">
+      <c r="Y23" s="10">
         <v>23.907</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22">
+    <row r="24" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <v>0.5</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="10">
         <v>55</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="10">
         <v>27.5</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="21">
         <v>28</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="25">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34">
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
         <v>27</v>
       </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="21">
         <v>26.7</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="21">
         <v>28.3</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="17">
         <v>0.2</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="17">
         <v>0.2</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="17">
         <v>0.78</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="17">
         <v>0.8</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U24" s="28">
+      <c r="U24" s="15">
         <v>15.47</v>
       </c>
-      <c r="V24" s="22">
+      <c r="V24" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W24" s="22">
-        <v>0</v>
-      </c>
-      <c r="X24" s="23">
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
         <v>28.71</v>
       </c>
-      <c r="Y24" s="23">
+      <c r="Y24" s="10">
         <v>26.408000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22">
+    <row r="25" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>0.5</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="10">
         <v>60</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="10">
         <v>30</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="21">
         <v>30.5</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="27">
         <v>-0.05</v>
       </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
         <v>29.5</v>
       </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="26">
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="21">
         <v>29.2</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="21">
         <v>30.8</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="18">
         <v>0.2</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="18">
         <v>0.2</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="18">
         <v>0.78</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R25" s="31">
+      <c r="R25" s="18">
         <v>0.8</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U25" s="28">
+      <c r="U25" s="15">
         <v>16.940000000000001</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W25" s="22">
-        <v>0</v>
-      </c>
-      <c r="X25" s="23">
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
         <v>31.199000000000002</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y25" s="10">
         <v>28.908999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25">
+    <row r="26" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
         <v>0.6</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="10">
         <v>20</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="10">
         <v>12</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="21">
         <v>12.6</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="26">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
         <v>11.4</v>
       </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="25">
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="21">
         <v>11.1</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="21">
         <v>12.9</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="19">
         <v>0.25</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="19">
         <v>0.25</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="19">
         <v>0.94</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="19">
         <v>0.94</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U26" s="28">
+      <c r="U26" s="15">
         <v>6.23</v>
       </c>
-      <c r="V26" s="22">
+      <c r="V26" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W26" s="22">
-        <v>0</v>
-      </c>
-      <c r="X26" s="23">
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10">
         <v>13.811999999999999</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Y26" s="10">
         <v>10.667</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22">
+    <row r="27" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
         <v>0.6</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="10">
         <v>15</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="21">
         <v>15.6</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="25">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G27" s="22">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34">
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
         <v>14.4</v>
       </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="22">
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="21">
         <v>14.1</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="21">
         <v>15.9</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="17">
         <v>0.25</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="17">
         <v>0.25</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="17">
         <v>0.94</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="17">
         <v>0.9</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U27" s="28">
+      <c r="U27" s="15">
         <v>8</v>
       </c>
-      <c r="V27" s="22">
+      <c r="V27" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W27" s="22">
-        <v>0</v>
-      </c>
-      <c r="X27" s="23">
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
         <v>16.684000000000001</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Y27" s="10">
         <v>13.675000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22">
+    <row r="28" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <v>0.6</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="10">
         <v>30</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="10">
         <v>18</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="21">
         <v>18.600000000000001</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="26">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34">
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
         <v>17.399999999999999</v>
       </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="26">
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="21">
         <v>17.100000000000001</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="21">
         <v>18.899999999999999</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="17">
         <v>0.25</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="17">
         <v>0.25</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="17">
         <v>0.94</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="17">
         <v>0.9</v>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U28" s="28">
+      <c r="U28" s="15">
         <v>9.75</v>
       </c>
-      <c r="V28" s="22">
+      <c r="V28" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W28" s="22">
-        <v>0</v>
-      </c>
-      <c r="X28" s="23">
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="10">
         <v>19.606999999999999</v>
       </c>
-      <c r="Y28" s="23">
+      <c r="Y28" s="10">
         <v>16.678999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22">
+    <row r="29" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
         <v>0.6</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="10">
         <v>35</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="10">
         <v>21</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="21">
         <v>21.6</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="24">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34">
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
         <v>20.399999999999999</v>
       </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="25">
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="21">
         <v>20.100000000000001</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="21">
         <v>21.9</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="17">
         <v>0.25</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="17">
         <v>0.25</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="17">
         <v>0.94</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="17">
         <v>0.9</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U29" s="28">
+      <c r="U29" s="15">
         <v>11.53</v>
       </c>
-      <c r="V29" s="22">
+      <c r="V29" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W29" s="22">
-        <v>0</v>
-      </c>
-      <c r="X29" s="23">
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="10">
         <v>22.555</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y29" s="10">
         <v>19.683</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22">
+    <row r="30" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
         <v>0.6</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="10">
         <v>40</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="10">
         <v>24</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="21">
         <v>24.6</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="24">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="34">
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
         <v>23.4</v>
       </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="22">
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="21">
         <v>23.1</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="21">
         <v>24.9</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="17">
         <v>0.25</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="17">
         <v>0.25</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="17">
         <v>0.94</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q30" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="17">
         <v>0.9</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U30" s="28">
+      <c r="U30" s="15">
         <v>13.29</v>
       </c>
-      <c r="V30" s="22">
+      <c r="V30" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W30" s="22">
-        <v>0</v>
-      </c>
-      <c r="X30" s="23">
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="10">
         <v>25.518999999999998</v>
       </c>
-      <c r="Y30" s="23">
+      <c r="Y30" s="10">
         <v>22.684999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22">
+    <row r="31" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
         <v>0.6</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="10">
         <v>45</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="10">
         <v>27</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="21">
         <v>27.6</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="25">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G31" s="22">
-        <v>0</v>
-      </c>
-      <c r="H31" s="34">
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
         <v>26.4</v>
       </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="22">
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="21">
         <v>26.1</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="21">
         <v>27.9</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M31" s="17">
         <v>0.25</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="17">
         <v>0.25</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="17">
         <v>0.94</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="17">
         <v>0.9</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U31" s="28">
+      <c r="U31" s="15">
         <v>15.05</v>
       </c>
-      <c r="V31" s="22">
+      <c r="V31" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W31" s="22">
-        <v>0</v>
-      </c>
-      <c r="X31" s="23">
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="10">
         <v>28.491</v>
       </c>
-      <c r="Y31" s="23">
+      <c r="Y31" s="10">
         <v>25.687000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22">
+    <row r="32" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
         <v>0.6</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="10">
         <v>50</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="10">
         <v>30</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="21">
         <v>30.6</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="26">
         <v>-0.05</v>
       </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="34">
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
         <v>29.4</v>
       </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="26">
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="21">
         <v>29.1</v>
       </c>
-      <c r="L32" s="34">
+      <c r="L32" s="21">
         <v>30.9</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="17">
         <v>0.25</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="17">
         <v>0.25</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="17">
         <v>0.94</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="17">
         <v>0.9</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U32" s="28">
+      <c r="U32" s="15">
         <v>15.82</v>
       </c>
-      <c r="V32" s="22">
+      <c r="V32" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W32" s="22">
-        <v>0</v>
-      </c>
-      <c r="X32" s="23">
+      <c r="W32" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="10">
         <v>31.47</v>
       </c>
-      <c r="Y32" s="23">
+      <c r="Y32" s="10">
         <v>28.687999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22">
+    <row r="33" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
         <v>0.6</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="10">
         <v>55</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="10">
         <v>33</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="21">
         <v>33.6</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="24">
         <v>-0.05</v>
       </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
         <v>32.4</v>
       </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="25">
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
         <v>0.05</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="21">
         <v>32.1</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="21">
         <v>33.9</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="17">
         <v>0.25</v>
       </c>
-      <c r="N33" s="30">
+      <c r="N33" s="17">
         <v>0.25</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="17">
         <v>0.94</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="17">
         <v>0.9</v>
       </c>
-      <c r="S33" s="22">
+      <c r="S33" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U33" s="28">
+      <c r="U33" s="15">
         <v>18.579999999999998</v>
       </c>
-      <c r="V33" s="22">
+      <c r="V33" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W33" s="22">
-        <v>0</v>
-      </c>
-      <c r="X33" s="23">
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="10">
         <v>34.453000000000003</v>
       </c>
-      <c r="Y33" s="23">
+      <c r="Y33" s="10">
         <v>31.689</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22">
+    <row r="34" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
         <v>0.6</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="10">
         <v>60</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="10">
         <v>36</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="21">
         <v>36.6</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="24">
         <v>-0.05</v>
       </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="34">
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
         <v>35.4</v>
       </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="22">
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
         <v>0.05</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="21">
         <v>35.1</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="21">
         <v>36.9</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="17">
         <v>0.25</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="17">
         <v>0.25</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="17">
         <v>0.94</v>
       </c>
-      <c r="P34" s="22">
+      <c r="P34" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="17">
         <v>0.9</v>
       </c>
-      <c r="S34" s="22">
+      <c r="S34" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U34" s="15">
         <v>20.350000000000001</v>
       </c>
-      <c r="V34" s="22">
+      <c r="V34" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W34" s="22">
-        <v>0</v>
-      </c>
-      <c r="X34" s="23">
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
         <v>37.439</v>
       </c>
-      <c r="Y34" s="23">
+      <c r="Y34" s="10">
         <v>34.69</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22">
+    <row r="35" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
         <v>0.6</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="10">
         <v>65</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="10">
         <v>39</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="21">
         <v>39.799999999999997</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="24">
         <v>-0.05</v>
       </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34">
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
         <v>38.4</v>
       </c>
-      <c r="I35" s="22">
-        <v>0</v>
-      </c>
-      <c r="J35" s="22">
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
         <v>0.05</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="21">
         <v>38.1</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="21">
         <v>39.9</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="17">
         <v>0.25</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="17">
         <v>0.25</v>
       </c>
-      <c r="O35" s="30">
+      <c r="O35" s="17">
         <v>0.94</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R35" s="30">
+      <c r="R35" s="17">
         <v>0.9</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U35" s="28">
+      <c r="U35" s="15">
         <v>22.11</v>
       </c>
-      <c r="V35" s="22">
+      <c r="V35" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W35" s="22">
-        <v>0</v>
-      </c>
-      <c r="X35" s="23">
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="10">
         <v>40.427</v>
       </c>
-      <c r="Y35" s="23">
+      <c r="Y35" s="10">
         <v>37.691000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22">
+    <row r="36" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
         <v>0.6</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="10">
         <v>70</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="10">
         <v>42</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="21">
         <v>42.6</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="25">
         <v>-0.05</v>
       </c>
-      <c r="G36" s="22">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34">
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
         <v>41.4</v>
       </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="26">
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
         <v>0.05</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="21">
         <v>41.1</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="21">
         <v>42.9</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="18">
         <v>0.25</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="18">
         <v>0.25</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="18">
         <v>0.94</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P36" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="Q36" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R36" s="31">
+      <c r="R36" s="18">
         <v>0.9</v>
       </c>
-      <c r="S36" s="22">
+      <c r="S36" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U36" s="28">
+      <c r="U36" s="15">
         <v>23.87</v>
       </c>
-      <c r="V36" s="22">
+      <c r="V36" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W36" s="22">
-        <v>0</v>
-      </c>
-      <c r="X36" s="23">
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="10">
         <v>43.417000000000002</v>
       </c>
-      <c r="Y36" s="23">
+      <c r="Y36" s="10">
         <v>40.692999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25">
+    <row r="37" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
         <v>0.8</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="10">
         <v>15</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="10">
         <v>12</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="21">
         <v>13</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="26">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="34">
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
         <v>11</v>
       </c>
-      <c r="I37" s="22">
-        <v>0</v>
-      </c>
-      <c r="J37" s="25">
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="21">
         <v>10.7</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="21">
         <v>13.3</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="19">
         <v>0.3</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="19">
         <v>0.3</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="19">
         <v>1.26</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="Q37" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R37" s="32">
+      <c r="R37" s="19">
         <v>1.26</v>
       </c>
-      <c r="S37" s="22">
+      <c r="S37" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U37" s="28">
+      <c r="U37" s="15">
         <v>5.98</v>
       </c>
-      <c r="V37" s="22">
+      <c r="V37" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W37" s="22">
-        <v>0</v>
-      </c>
-      <c r="X37" s="23">
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="10">
         <v>14.752000000000001</v>
       </c>
-      <c r="Y37" s="23">
+      <c r="Y37" s="10">
         <v>10.208</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22">
+    <row r="38" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
         <v>0.8</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="10">
         <v>20</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="10">
         <v>16</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="21">
         <v>17</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="25">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="G38" s="22">
-        <v>0</v>
-      </c>
-      <c r="H38" s="34">
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
         <v>15</v>
       </c>
-      <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="26">
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="21">
         <v>14.7</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="21">
         <v>17.3</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="17">
         <v>0.3</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="17">
         <v>0.3</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="17">
         <v>1.26</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q38" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="17">
         <v>1.3</v>
       </c>
-      <c r="S38" s="22">
+      <c r="S38" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T38" s="22">
+      <c r="T38" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U38" s="28">
+      <c r="U38" s="15">
         <v>8.33</v>
       </c>
-      <c r="V38" s="22">
+      <c r="V38" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W38" s="22">
-        <v>0</v>
-      </c>
-      <c r="X38" s="23">
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="10">
         <v>18.414000000000001</v>
       </c>
-      <c r="Y38" s="23">
+      <c r="Y38" s="10">
         <v>14.223000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22">
+    <row r="39" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <v>0.8</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="10">
         <v>25</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="10">
         <v>20</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="21">
         <v>21</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="26">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G39" s="22">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34">
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
         <v>19</v>
       </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="25">
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="21">
         <v>18.7</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L39" s="21">
         <v>21.3</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="17">
         <v>0.3</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="17">
         <v>0.3</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="17">
         <v>1.26</v>
       </c>
-      <c r="P39" s="22">
+      <c r="P39" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q39" s="22">
+      <c r="Q39" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="17">
         <v>1.3</v>
       </c>
-      <c r="S39" s="22">
+      <c r="S39" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T39" s="22">
+      <c r="T39" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U39" s="28">
+      <c r="U39" s="15">
         <v>10.89</v>
       </c>
-      <c r="V39" s="22">
+      <c r="V39" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W39" s="22">
-        <v>0</v>
-      </c>
-      <c r="X39" s="23">
+      <c r="W39" s="9">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
         <v>22.245000000000001</v>
       </c>
-      <c r="Y39" s="23">
+      <c r="Y39" s="10">
         <v>18.231999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22">
+    <row r="40" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
         <v>0.8</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="10">
         <v>30</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="10">
         <v>24</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="21">
         <v>25</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="24">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G40" s="22">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34">
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21">
         <v>23</v>
       </c>
-      <c r="I40" s="22">
-        <v>0</v>
-      </c>
-      <c r="J40" s="22">
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="21">
         <v>22.7</v>
       </c>
-      <c r="L40" s="34">
+      <c r="L40" s="21">
         <v>25.3</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="17">
         <v>0.3</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="17">
         <v>0.3</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="17">
         <v>1.26</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q40" s="22">
+      <c r="Q40" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="17">
         <v>1.3</v>
       </c>
-      <c r="S40" s="22">
+      <c r="S40" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U40" s="28">
+      <c r="U40" s="15">
         <v>13.04</v>
       </c>
-      <c r="V40" s="22">
+      <c r="V40" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W40" s="22">
-        <v>0</v>
-      </c>
-      <c r="X40" s="23">
+      <c r="W40" s="9">
+        <v>0</v>
+      </c>
+      <c r="X40" s="10">
         <v>26.143000000000001</v>
       </c>
-      <c r="Y40" s="23">
+      <c r="Y40" s="10">
         <v>22.238</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="22">
+    <row r="41" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
         <v>0.8</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="10">
         <v>35</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="10">
         <v>28</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="21">
         <v>29</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="25">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="G41" s="22">
-        <v>0</v>
-      </c>
-      <c r="H41" s="34">
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
         <v>27</v>
       </c>
-      <c r="I41" s="22">
-        <v>0</v>
-      </c>
-      <c r="J41" s="26">
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="21">
         <v>26.7</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="21">
         <v>29.3</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="17">
         <v>0.3</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="17">
         <v>0.3</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="17">
         <v>1.26</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="17">
         <v>1.3</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T41" s="22">
+      <c r="T41" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U41" s="28">
+      <c r="U41" s="15">
         <v>15.39</v>
       </c>
-      <c r="V41" s="22">
+      <c r="V41" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W41" s="22">
-        <v>0</v>
-      </c>
-      <c r="X41" s="23">
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="10">
         <v>30.074000000000002</v>
       </c>
-      <c r="Y41" s="23">
+      <c r="Y41" s="10">
         <v>26.242999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="22">
+    <row r="42" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
         <v>0.8</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="10">
         <v>32</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="21">
         <v>33</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="26">
         <v>-0.05</v>
       </c>
-      <c r="G42" s="22">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34">
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="21">
         <v>31</v>
       </c>
-      <c r="I42" s="22">
-        <v>0</v>
-      </c>
-      <c r="J42" s="25">
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
         <v>0.05</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="21">
         <v>30.7</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="21">
         <v>33.299999999999997</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="17">
         <v>0.3</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="17">
         <v>0.3</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="17">
         <v>1.26</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q42" s="22">
+      <c r="Q42" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="17">
         <v>1.3</v>
       </c>
-      <c r="S42" s="22">
+      <c r="S42" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U42" s="28">
+      <c r="U42" s="15">
         <v>17.739999999999998</v>
       </c>
-      <c r="V42" s="22">
+      <c r="V42" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W42" s="22">
-        <v>0</v>
-      </c>
-      <c r="X42" s="23">
+      <c r="W42" s="9">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
         <v>34.024999999999999</v>
       </c>
-      <c r="Y42" s="23">
+      <c r="Y42" s="10">
         <v>30.245999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22">
+    <row r="43" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
         <v>0.8</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="10">
         <v>45</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="10">
         <v>36</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="21">
         <v>37</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="24">
         <v>-0.05</v>
       </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="34">
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21">
         <v>35</v>
       </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22">
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9">
         <v>0.05</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="21">
         <v>34.700000000000003</v>
       </c>
-      <c r="L43" s="34">
+      <c r="L43" s="21">
         <v>37.299999999999997</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="17">
         <v>0.3</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="17">
         <v>0.3</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="17">
         <v>1.26</v>
       </c>
-      <c r="P43" s="22">
+      <c r="P43" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q43" s="22">
+      <c r="Q43" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="17">
         <v>1.3</v>
       </c>
-      <c r="S43" s="22">
+      <c r="S43" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U43" s="28">
+      <c r="U43" s="15">
         <v>20.09</v>
       </c>
-      <c r="V43" s="22">
+      <c r="V43" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W43" s="22">
-        <v>0</v>
-      </c>
-      <c r="X43" s="23">
+      <c r="W43" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
         <v>37.988999999999997</v>
       </c>
-      <c r="Y43" s="23">
+      <c r="Y43" s="10">
         <v>34.249000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22">
+    <row r="44" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
         <v>0.8</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="10">
         <v>50</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="10">
         <v>40</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="21">
         <v>41</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="24">
         <v>-0.05</v>
       </c>
-      <c r="G44" s="22">
-        <v>0</v>
-      </c>
-      <c r="H44" s="34">
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="21">
         <v>39</v>
       </c>
-      <c r="I44" s="22">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22">
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
         <v>0.05</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="21">
         <v>38.700000000000003</v>
       </c>
-      <c r="L44" s="34">
+      <c r="L44" s="21">
         <v>41.3</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="17">
         <v>0.3</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N44" s="17">
         <v>0.3</v>
       </c>
-      <c r="O44" s="30">
+      <c r="O44" s="17">
         <v>1.26</v>
       </c>
-      <c r="P44" s="22">
+      <c r="P44" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q44" s="22">
+      <c r="Q44" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R44" s="30">
+      <c r="R44" s="17">
         <v>1.3</v>
       </c>
-      <c r="S44" s="22">
+      <c r="S44" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T44" s="22">
+      <c r="T44" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U44" s="28">
+      <c r="U44" s="15">
         <v>22.45</v>
       </c>
-      <c r="V44" s="22">
+      <c r="V44" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W44" s="22">
-        <v>0</v>
-      </c>
-      <c r="X44" s="23">
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="10">
         <v>41.96</v>
       </c>
-      <c r="Y44" s="23">
+      <c r="Y44" s="10">
         <v>38.250999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22">
+    <row r="45" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
         <v>0.8</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="10">
         <v>55</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="10">
         <v>44</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="21">
         <v>45</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="24">
         <v>-0.05</v>
       </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="34">
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="21">
         <v>43</v>
       </c>
-      <c r="I45" s="22">
-        <v>0</v>
-      </c>
-      <c r="J45" s="22">
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
         <v>0.05</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="21">
         <v>42.7</v>
       </c>
-      <c r="L45" s="34">
+      <c r="L45" s="21">
         <v>45.3</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="17">
         <v>0.3</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="17">
         <v>0.3</v>
       </c>
-      <c r="O45" s="30">
+      <c r="O45" s="17">
         <v>1.26</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P45" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q45" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R45" s="30">
+      <c r="R45" s="17">
         <v>1.3</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T45" s="22">
+      <c r="T45" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U45" s="28">
+      <c r="U45" s="15">
         <v>24.8</v>
       </c>
-      <c r="V45" s="22">
+      <c r="V45" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W45" s="22">
-        <v>0</v>
-      </c>
-      <c r="X45" s="23">
+      <c r="W45" s="9">
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
         <v>45.936999999999998</v>
       </c>
-      <c r="Y45" s="23">
+      <c r="Y45" s="10">
         <v>42.253</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22">
+    <row r="46" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>0.8</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="10">
         <v>60</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="10">
         <v>48</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="21">
         <v>49</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="25">
         <v>-0.05</v>
       </c>
-      <c r="G46" s="22">
-        <v>0</v>
-      </c>
-      <c r="H46" s="34">
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21">
         <v>47</v>
       </c>
-      <c r="I46" s="22">
-        <v>0</v>
-      </c>
-      <c r="J46" s="26">
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
         <v>0.05</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="21">
         <v>46.7</v>
       </c>
-      <c r="L46" s="34">
+      <c r="L46" s="21">
         <v>49.3</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="17">
         <v>0.3</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="17">
         <v>0.3</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="17">
         <v>1.26</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q46" s="22">
+      <c r="Q46" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R46" s="30">
+      <c r="R46" s="17">
         <v>1.3</v>
       </c>
-      <c r="S46" s="22">
+      <c r="S46" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T46" s="22">
+      <c r="T46" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U46" s="28">
+      <c r="U46" s="15">
         <v>27.15</v>
       </c>
-      <c r="V46" s="22">
+      <c r="V46" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W46" s="22">
-        <v>0</v>
-      </c>
-      <c r="X46" s="23">
+      <c r="W46" s="9">
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
         <v>49.918999999999997</v>
       </c>
-      <c r="Y46" s="23">
+      <c r="Y46" s="10">
         <v>46.253999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22">
+    <row r="47" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
         <v>0.8</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="10">
         <v>65</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="10">
         <v>52</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="21">
         <v>53</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="26">
         <v>-0.06</v>
       </c>
-      <c r="G47" s="22">
-        <v>0</v>
-      </c>
-      <c r="H47" s="34">
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="21">
         <v>51</v>
       </c>
-      <c r="I47" s="22">
-        <v>0</v>
-      </c>
-      <c r="J47" s="25">
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
         <v>0.06</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="21">
         <v>50.7</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="21">
         <v>53.3</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="17">
         <v>0.3</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="17">
         <v>0.3</v>
       </c>
-      <c r="O47" s="30">
+      <c r="O47" s="17">
         <v>1.26</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47" s="9">
         <v>-0.12</v>
       </c>
-      <c r="Q47" s="22">
+      <c r="Q47" s="9">
         <v>-0.06</v>
       </c>
-      <c r="R47" s="30">
+      <c r="R47" s="17">
         <v>1.3</v>
       </c>
-      <c r="S47" s="22">
+      <c r="S47" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U47" s="28">
+      <c r="U47" s="15">
         <v>29.5</v>
       </c>
-      <c r="V47" s="22">
+      <c r="V47" s="9">
         <v>-0.05</v>
       </c>
-      <c r="W47" s="22">
-        <v>0</v>
-      </c>
-      <c r="X47" s="23">
+      <c r="W47" s="9">
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
         <v>53.902999999999999</v>
       </c>
-      <c r="Y47" s="23">
+      <c r="Y47" s="10">
         <v>50.255000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26">
+    <row r="48" spans="1:25" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13">
         <v>0.8</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="10">
         <v>70</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="10">
         <v>56</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="21">
         <v>57</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="25">
         <v>-0.06</v>
       </c>
-      <c r="G48" s="26">
-        <v>0</v>
-      </c>
-      <c r="H48" s="34">
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="21">
         <v>55</v>
       </c>
-      <c r="I48" s="26">
-        <v>0</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
         <v>0.06</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="21">
         <v>54.7</v>
       </c>
-      <c r="L48" s="34">
+      <c r="L48" s="21">
         <v>57.3</v>
       </c>
-      <c r="M48" s="31">
+      <c r="M48" s="18">
         <v>0.3</v>
       </c>
-      <c r="N48" s="31">
+      <c r="N48" s="18">
         <v>0.3</v>
       </c>
-      <c r="O48" s="31">
+      <c r="O48" s="18">
         <v>1.26</v>
       </c>
-      <c r="P48" s="26">
+      <c r="P48" s="13">
         <v>-0.12</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="13">
         <v>-0.06</v>
       </c>
-      <c r="R48" s="31">
+      <c r="R48" s="18">
         <v>1.3</v>
       </c>
-      <c r="S48" s="26">
+      <c r="S48" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T48" s="26">
+      <c r="T48" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U48" s="28">
+      <c r="U48" s="15">
         <v>31.85</v>
       </c>
-      <c r="V48" s="26">
+      <c r="V48" s="13">
         <v>-0.05</v>
       </c>
-      <c r="W48" s="26">
-        <v>0</v>
-      </c>
-      <c r="X48" s="23">
+      <c r="W48" s="13">
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
         <v>57.89</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Y48" s="10">
         <v>54.26</v>
       </c>
     </row>
